--- a/data/trans_dic/ProblemasDormirP33b-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2383522099724182</v>
+        <v>0.2383522099724183</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3682818116286757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3105433534696716</v>
+        <v>0.3105433534696717</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2006347286275395</v>
+        <v>0.2017087076937534</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3366703074270045</v>
+        <v>0.3330273139385343</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2843867918219385</v>
+        <v>0.2833647422220025</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2797023014222681</v>
+        <v>0.2836962797700977</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4031172902233496</v>
+        <v>0.4039635242748022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3363867020686155</v>
+        <v>0.3385203707815248</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1149491070577761</v>
+        <v>0.1156468956161605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2033724594702947</v>
+        <v>0.203217640296819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1691862153125694</v>
+        <v>0.1679112024823182</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1577176785504696</v>
+        <v>0.1602247396585195</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2458949257009535</v>
+        <v>0.2458677242936968</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1993280649711887</v>
+        <v>0.1986084781542534</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07877459613929662</v>
+        <v>0.07935550745616426</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1284141486368853</v>
+        <v>0.1263725879190992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1080169955131308</v>
+        <v>0.1075539710755735</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.117199473298405</v>
+        <v>0.1176121276060306</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1655246111627832</v>
+        <v>0.164047157123292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1363023458435264</v>
+        <v>0.1348598924024836</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08394784643126295</v>
+        <v>0.08468282510410149</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1329428904707291</v>
+        <v>0.1323631660810889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1126698925098394</v>
+        <v>0.1124304930654621</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1279864319625017</v>
+        <v>0.1285868277145084</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1753748016060397</v>
+        <v>0.1740678971113971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1420716744057339</v>
+        <v>0.1420325883161798</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1294407800579111</v>
+        <v>0.1294407800579112</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.2084285025840509</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1180776083385979</v>
+        <v>0.1174177099538151</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1980848980028645</v>
+        <v>0.1972288505837677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1618852573425415</v>
+        <v>0.1620544651002724</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1418405511370399</v>
+        <v>0.1407852739403516</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2206223967721457</v>
+        <v>0.2200355954682491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1780846648006381</v>
+        <v>0.1789876254341248</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>100064</v>
+        <v>100600</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>209941</v>
+        <v>207669</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>319173</v>
+        <v>318026</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>139498</v>
+        <v>141490</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>251376</v>
+        <v>251904</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>377534</v>
+        <v>379928</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>110367</v>
+        <v>111037</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>226933</v>
+        <v>226760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>351228</v>
+        <v>348581</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151431</v>
+        <v>153838</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>274382</v>
+        <v>274351</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>413802</v>
+        <v>412308</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>82436</v>
+        <v>83044</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>134532</v>
+        <v>132393</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>226201</v>
+        <v>225231</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>122647</v>
+        <v>123079</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173411</v>
+        <v>171863</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>285434</v>
+        <v>282413</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>81927</v>
+        <v>82644</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>121024</v>
+        <v>120496</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>212526</v>
+        <v>212075</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124906</v>
+        <v>125492</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>159652</v>
+        <v>158462</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>267986</v>
+        <v>267912</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>411062</v>
+        <v>408764</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>732402</v>
+        <v>729237</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1162126</v>
+        <v>1163341</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>493787</v>
+        <v>490114</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>815733</v>
+        <v>813563</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1278417</v>
+        <v>1284899</v>
       </c>
     </row>
     <row r="24">
